--- a/03d the social network/Workbook1.xlsx
+++ b/03d the social network/Workbook1.xlsx
@@ -18670,7 +18670,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F60" sqref="A1:I60"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
